--- a/data/BuildingPermit/SanMateoBuildingPermits/ErrorMessageRecordsSanMateo.xlsx
+++ b/data/BuildingPermit/SanMateoBuildingPermits/ErrorMessageRecordsSanMateo.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="88">
   <si>
     <t>CITYCODE</t>
   </si>
@@ -284,12 +284,6 @@
   </si>
   <si>
     <t>25/12/2019</t>
-  </si>
-  <si>
-    <t>Building Permit Starts With TR</t>
-  </si>
-  <si>
-    <t>TR-2018-988981</t>
   </si>
   <si>
     <t>ST-2018-988981</t>
@@ -715,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF27"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -2548,7 +2542,7 @@
         <v>31</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C25" s="14">
         <v>43466</v>
@@ -2599,7 +2593,7 @@
         <v>87654.6</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AB25" s="13">
         <v>11000</v>
@@ -2622,7 +2616,7 @@
         <v>31</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="14">
         <v>43466</v>
@@ -2673,7 +2667,7 @@
         <v>87654.6</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AB26" s="13">
         <v>11000</v>
@@ -2688,80 +2682,6 @@
         <v>43647</v>
       </c>
       <c r="AF26" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:32" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="14">
-        <v>43466</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="13">
-        <v>10</v>
-      </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="O27" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="13">
-        <v>94403</v>
-      </c>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="13">
-        <v>87654.6</v>
-      </c>
-      <c r="AA27" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB27" s="13">
-        <v>11000</v>
-      </c>
-      <c r="AC27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD27" s="14">
-        <v>43658</v>
-      </c>
-      <c r="AE27" s="14">
-        <v>43647</v>
-      </c>
-      <c r="AF27" s="13" t="s">
         <v>37</v>
       </c>
     </row>
